--- a/annual_and_quarterly_CPI_movement_2014_2024.xlsx
+++ b/annual_and_quarterly_CPI_movement_2014_2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E25D0D-7E48-4CAC-8AB3-D568CAE4E469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2225E-3894-4AA5-B2D5-EA840C50A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33345" yWindow="3945" windowWidth="20430" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -575,7 +580,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -586,7 +591,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -597,7 +602,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
@@ -608,7 +613,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
@@ -619,7 +624,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
@@ -630,7 +635,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
@@ -641,7 +646,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -652,7 +657,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
@@ -663,7 +668,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
@@ -674,7 +679,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
@@ -685,7 +690,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
@@ -696,7 +701,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
@@ -707,7 +712,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
@@ -718,7 +723,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
@@ -729,7 +734,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2">
@@ -740,7 +745,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2">
@@ -751,7 +756,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2">
@@ -762,7 +767,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="2">
@@ -773,7 +778,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2">
@@ -784,7 +789,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2">
@@ -795,7 +800,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
@@ -806,7 +811,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2">
@@ -817,7 +822,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2">
@@ -828,7 +833,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2">
@@ -839,7 +844,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="2">
@@ -850,7 +855,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2">
@@ -861,7 +866,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="2">
@@ -872,7 +877,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="2">
@@ -883,7 +888,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="2">
@@ -894,7 +899,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="2">
@@ -905,7 +910,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="2">
@@ -916,7 +921,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2">
@@ -927,7 +932,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="2">
@@ -938,7 +943,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2">
@@ -949,7 +954,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="2">
@@ -960,7 +965,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="2">
@@ -971,7 +976,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="2">
@@ -982,7 +987,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="2">
@@ -993,7 +998,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2">
@@ -1004,7 +1009,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="2">
@@ -1015,7 +1020,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="2">
